--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이오남\OneDrive\바탕 화면\노인일자리_프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89A8CF-334B-4CE0-8F55-B41503389AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95705AE-4538-4F57-A950-0EE848C157FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D1E4F5-7479-4AFA-A401-40CB52CF69DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>주제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>한옥마을관광포스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래한장앱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시니언노래동영상앱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image4.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,13 +170,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +201,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABF0DF3-D8AC-4F21-AFB1-5380EEC0964E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,6 +599,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
